--- a/Latex/resultsSOA.xlsx
+++ b/Latex/resultsSOA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\thesisImageNL\Latex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Flickr8k</t>
   </si>
@@ -67,13 +72,85 @@
   </si>
   <si>
     <t>Karpathy(1)</t>
+  </si>
+  <si>
+    <t>Karpathy 2</t>
+  </si>
+  <si>
+    <t>Phrase based</t>
+  </si>
+  <si>
+    <t>Mao (base)</t>
+  </si>
+  <si>
+    <t>Mao (m-RNN)</t>
+  </si>
+  <si>
+    <t>Donahue LRCN</t>
+  </si>
+  <si>
+    <t>Flickr30K</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Karpathy 1</t>
+  </si>
+  <si>
+    <t>R@1</t>
+  </si>
+  <si>
+    <t>R@5</t>
+  </si>
+  <si>
+    <t>R@10</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Devise</t>
+  </si>
+  <si>
+    <t>Mao</t>
+  </si>
+  <si>
+    <t>Karpathy 2 1K</t>
+  </si>
+  <si>
+    <t>Karpathy 2 5K</t>
+  </si>
+  <si>
+    <t>Karpathy 2 %K</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Kiros</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Donahue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +161,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,27 +194,978 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,9 +1203,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +1240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +1275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,313 +1449,1219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="V24" sqref="V24:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:25" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>63</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>12.6</v>
+      </c>
+      <c r="O3">
+        <v>32.9</v>
+      </c>
+      <c r="P3">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W3">
+        <v>29.6</v>
+      </c>
+      <c r="X3">
+        <v>42.5</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>65.599999999999994</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>42.4</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>27.7</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>17.7</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>17.309999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>57</v>
+      </c>
+      <c r="P4">
+        <v>68</v>
+      </c>
+      <c r="Q4">
+        <v>11.9</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4">
+        <v>21.6</v>
+      </c>
+      <c r="W4">
+        <v>54.6</v>
+      </c>
+      <c r="X4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="Y4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>44.8</v>
-      </c>
-      <c r="F4">
-        <v>299</v>
-      </c>
-      <c r="G4">
-        <v>19.5</v>
-      </c>
-      <c r="H4">
-        <v>18.93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>67</v>
       </c>
       <c r="E5">
+        <v>44.8</v>
+      </c>
+      <c r="F5">
+        <v>29.9</v>
+      </c>
+      <c r="G5">
+        <v>19.5</v>
+      </c>
+      <c r="H5">
+        <v>18.93</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>11.7</v>
+      </c>
+      <c r="O5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P5">
+        <v>48.6</v>
+      </c>
+      <c r="Q5">
+        <v>11.2</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <v>11.4</v>
+      </c>
+      <c r="W5">
+        <v>32</v>
+      </c>
+      <c r="X5">
+        <v>46.2</v>
+      </c>
+      <c r="Y5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+      <c r="E6">
         <v>45.7</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>31.4</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>21.3</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <v>14.5</v>
+      </c>
+      <c r="O6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P6">
+        <v>48.5</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6">
+        <v>11.5</v>
+      </c>
+      <c r="W6">
+        <v>31</v>
+      </c>
+      <c r="X6">
+        <v>42.4</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>40.9</v>
+      </c>
+      <c r="P7">
+        <v>55</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7">
+        <v>12.5</v>
+      </c>
+      <c r="W7">
+        <v>37</v>
+      </c>
+      <c r="X7">
+        <v>51.5</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>57.9</v>
+      </c>
+      <c r="E8">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F8">
+        <v>24.5</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>61</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8">
+        <v>19</v>
+      </c>
+      <c r="X8">
+        <v>64</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>43.8</v>
+      </c>
+      <c r="E9">
+        <v>18.5</v>
+      </c>
+      <c r="F9">
+        <v>13.4</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>57.8</v>
+      </c>
+      <c r="E10">
+        <v>27.5</v>
+      </c>
+      <c r="F10">
+        <v>23.1</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>66.3</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>42.3</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>27.7</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P12">
+        <v>54.7</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12">
+        <v>10.3</v>
+      </c>
+      <c r="W12">
+        <v>31.4</v>
+      </c>
+      <c r="X12">
+        <v>44.5</v>
+      </c>
+      <c r="Y12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>38</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>25.4</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>17.100000000000001</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>16.88</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="L13" s="1"/>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>4.5</v>
+      </c>
+      <c r="O13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P13">
+        <v>29.2</v>
+      </c>
+      <c r="Q13">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13">
+        <v>6.7</v>
+      </c>
+      <c r="W13">
+        <v>21.9</v>
+      </c>
+      <c r="X13">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>66.7</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>43.4</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>28.8</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>19.100000000000001</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>18.489999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="L14" s="1"/>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>12.1</v>
+      </c>
+      <c r="O14">
+        <v>27.8</v>
+      </c>
+      <c r="P14">
+        <v>47.8</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>12.7</v>
+      </c>
+      <c r="W14">
+        <v>33.1</v>
+      </c>
+      <c r="X14">
+        <v>44.9</v>
+      </c>
+      <c r="Y14">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>66.900000000000006</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>43.9</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>29.6</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>19.899999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>18.46</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P15">
+        <v>50.9</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15">
+        <v>12.6</v>
+      </c>
+      <c r="W15">
+        <v>31.2</v>
+      </c>
+      <c r="X15">
+        <v>41.5</v>
+      </c>
+      <c r="Y15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>22.2</v>
+      </c>
+      <c r="O16">
+        <v>48.2</v>
+      </c>
+      <c r="P16">
+        <v>61.4</v>
+      </c>
+      <c r="Q16">
+        <v>4.8</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <v>15.2</v>
+      </c>
+      <c r="W16">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="X16">
+        <v>50.5</v>
+      </c>
+      <c r="Y16">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>57.3</v>
+      </c>
+      <c r="E17">
+        <v>36.9</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>15.7</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17">
+        <v>23</v>
+      </c>
+      <c r="O17">
+        <v>50.7</v>
+      </c>
+      <c r="P17">
+        <v>62.9</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17">
+        <v>16.8</v>
+      </c>
+      <c r="W17">
+        <v>42</v>
+      </c>
+      <c r="X17">
+        <v>56.5</v>
+      </c>
+      <c r="Y17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>56</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18">
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <v>57</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F19">
+        <v>12.5</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19">
+        <v>17.5</v>
+      </c>
+      <c r="W19">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="X19">
+        <v>50.8</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>54.8</v>
+      </c>
+      <c r="E20">
+        <v>23.9</v>
+      </c>
+      <c r="F20">
+        <v>19.5</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>58.72</v>
+      </c>
+      <c r="E21">
+        <v>39.06</v>
+      </c>
+      <c r="F21">
+        <v>25.12</v>
+      </c>
+      <c r="G21">
+        <v>16.46</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>66.599999999999994</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>46.1</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>32.9</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="L24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>38.4</v>
+      </c>
+      <c r="O24">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="P24">
+        <v>80.5</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24">
+        <v>27.4</v>
+      </c>
+      <c r="W24">
+        <v>60</v>
+      </c>
+      <c r="X24">
+        <v>74.8</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>70.8</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>48.9</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>34.4</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>24.3</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>20.03</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>16.5</v>
+      </c>
+      <c r="O25">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P25">
+        <v>52</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25">
+        <v>10.7</v>
+      </c>
+      <c r="W25">
+        <v>29.6</v>
+      </c>
+      <c r="X25">
+        <v>42.2</v>
+      </c>
+      <c r="Y25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>70.7</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>49.2</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>34.4</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>24.3</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>23.9</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>71.8</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>50.4</v>
       </c>
-      <c r="F23">
+      <c r="F27">
         <v>35.700000000000003</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>25</v>
       </c>
-      <c r="H23">
+      <c r="H27">
         <v>23.04</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>20.41</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="H25">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="G29">
+        <v>25.7</v>
+      </c>
+      <c r="H29">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>64.2</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>45.1</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>30.4</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>20.3</v>
       </c>
     </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>62.5</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>32.1</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>62.79</v>
+      </c>
+      <c r="E33">
+        <v>44.19</v>
+      </c>
+      <c r="F33">
+        <v>30.41</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <v>19.3</v>
+      </c>
+      <c r="H36">
+        <v>24.1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="top10" dxfId="85" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="top10" dxfId="81" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F10">
+    <cfRule type="top10" dxfId="78" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="top10" dxfId="75" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="top10" dxfId="72" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="top10" dxfId="68" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E21">
+    <cfRule type="top10" dxfId="65" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F21">
+    <cfRule type="top10" dxfId="63" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G21">
+    <cfRule type="top10" dxfId="61" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H21">
+    <cfRule type="top10" dxfId="59" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D33">
+    <cfRule type="top10" dxfId="57" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E33">
+    <cfRule type="top10" dxfId="55" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F33">
+    <cfRule type="top10" dxfId="53" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G33">
+    <cfRule type="top10" dxfId="51" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H33">
+    <cfRule type="top10" dxfId="49" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N9">
+    <cfRule type="top10" dxfId="47" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O9">
+    <cfRule type="top10" dxfId="45" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P9">
+    <cfRule type="top10" dxfId="43" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q9">
+    <cfRule type="top10" dxfId="41" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N19">
+    <cfRule type="top10" dxfId="39" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O19">
+    <cfRule type="top10" dxfId="37" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P19">
+    <cfRule type="top10" dxfId="35" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q19">
+    <cfRule type="top10" dxfId="33" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N25">
+    <cfRule type="top10" dxfId="31" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:O25">
+    <cfRule type="top10" dxfId="29" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:P25">
+    <cfRule type="top10" dxfId="27" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:Q25">
+    <cfRule type="top10" dxfId="25" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V9">
+    <cfRule type="top10" dxfId="23" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W9">
+    <cfRule type="top10" dxfId="21" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X9">
+    <cfRule type="top10" dxfId="19" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y9">
+    <cfRule type="top10" dxfId="17" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V19">
+    <cfRule type="top10" dxfId="15" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:W19">
+    <cfRule type="top10" dxfId="13" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:X19">
+    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y19">
+    <cfRule type="top10" dxfId="9" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24:V25">
+    <cfRule type="top10" dxfId="7" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:W25">
+    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24:X25">
+    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24:Y25">
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="V2" r:id="rId4"/>
+    <hyperlink ref="W2" r:id="rId5"/>
+    <hyperlink ref="X2" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Latex/resultsSOA.xlsx
+++ b/Latex/resultsSOA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>Flickr8k</t>
   </si>
@@ -165,13 +165,223 @@
   </si>
   <si>
     <t>Karpathy 2(AlexNet)</t>
+  </si>
+  <si>
+    <t>Overzicht papers</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>RNN/LSTM</t>
+  </si>
+  <si>
+    <t>MM space</t>
+  </si>
+  <si>
+    <t>Language Model</t>
+  </si>
+  <si>
+    <t>Objective Function</t>
+  </si>
+  <si>
+    <t>CNN gefinetuned</t>
+  </si>
+  <si>
+    <t>Generatie</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Deep fragment embeddings</t>
+  </si>
+  <si>
+    <t>Karpathy</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>DeFrag</t>
+  </si>
+  <si>
+    <t>RCNN (Girschik)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>alignment + global ranking</t>
+  </si>
+  <si>
+    <t>From captions to visual concepts and back</t>
+  </si>
+  <si>
+    <t>Fang</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>CNN (VGG:Simonyan)</t>
+  </si>
+  <si>
+    <t>Maximum Entropy LM</t>
+  </si>
+  <si>
+    <t>Learning a recurrent visual representation</t>
+  </si>
+  <si>
+    <t>LSTM (ook voor images)</t>
+  </si>
+  <si>
+    <t>Retrieval</t>
+  </si>
+  <si>
+    <t>Word classing + combinatie RNN met ME LM</t>
+  </si>
+  <si>
+    <t>sample lengte en sample zin</t>
+  </si>
+  <si>
+    <t>stack van LSTMs</t>
+  </si>
+  <si>
+    <t>BeamSearch</t>
+  </si>
+  <si>
+    <t>CNN(Jia) ~ AlexNet</t>
+  </si>
+  <si>
+    <t>Kiros</t>
+  </si>
+  <si>
+    <t>Unifying visual-semantic embeddings</t>
+  </si>
+  <si>
+    <t>Long-Term Recurrent Convolutional networks for visual</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>LSTM-&gt; hidden state = woordrepresentatie</t>
+  </si>
+  <si>
+    <t>CNN(AlexNet)</t>
+  </si>
+  <si>
+    <t>pairwise ranking loss</t>
+  </si>
+  <si>
+    <t>MERT+Deep Multimodal Similarity Model</t>
+  </si>
+  <si>
+    <t>SCNLM (~log-bilinear) bevat POS-tags bvb</t>
+  </si>
+  <si>
+    <t>Show-And-Tell</t>
+  </si>
+  <si>
+    <t>Vinyals</t>
+  </si>
+  <si>
+    <t>CNN(Ioffe)</t>
+  </si>
+  <si>
+    <t>Explain images with multimodal RNN</t>
+  </si>
+  <si>
+    <t>mRNN</t>
+  </si>
+  <si>
+    <t>perplexity</t>
+  </si>
+  <si>
+    <t>softmax + max probability word</t>
+  </si>
+  <si>
+    <t>Show,Attend and Tell</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>~ attention</t>
+  </si>
+  <si>
+    <t>attention model</t>
+  </si>
+  <si>
+    <t>CNN(VGG:Simonyan)  maar niet laatste laag)</t>
+  </si>
+  <si>
+    <t>Phrase-based image captioning</t>
+  </si>
+  <si>
+    <t>Lebret</t>
+  </si>
+  <si>
+    <t>trigram language model voor phrases</t>
+  </si>
+  <si>
+    <t>beamsearch + reranking</t>
+  </si>
+  <si>
+    <t>CNN(VGG:Chatfield;Simonyan)</t>
+  </si>
+  <si>
+    <t>Deep visual semantic alignments</t>
+  </si>
+  <si>
+    <t>(wel bij deel voor snippets)</t>
+  </si>
+  <si>
+    <t>CNN(VGG:Simonyan &amp; CNN:AlexNet)</t>
+  </si>
+  <si>
+    <t>beamsearch</t>
+  </si>
+  <si>
+    <t>Grounded compositional semantics for …</t>
+  </si>
+  <si>
+    <t>Socher</t>
+  </si>
+  <si>
+    <t>SDT-RNN</t>
+  </si>
+  <si>
+    <t>inner product tussen representaties</t>
+  </si>
+  <si>
+    <t>CNN(GoogLeNet)</t>
+  </si>
+  <si>
+    <t>(S)DT-RNN</t>
+  </si>
+  <si>
+    <t>(dependency triplets als sentence representation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +399,13 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,1456 +432,404 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1710,6 +875,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B5:O16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B5:O16"/>
+  <sortState ref="B6:O16">
+    <sortCondition ref="C5:C16"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Titel"/>
+    <tableColumn id="2" name="Datum" dataDxfId="0"/>
+    <tableColumn id="3" name="Auteur"/>
+    <tableColumn id="4" name="Naam"/>
+    <tableColumn id="5" name="Objects"/>
+    <tableColumn id="6" name="CNN"/>
+    <tableColumn id="7" name="RNN/LSTM"/>
+    <tableColumn id="8" name="MM space"/>
+    <tableColumn id="9" name="Language Model"/>
+    <tableColumn id="10" name="Objective Function"/>
+    <tableColumn id="11" name="CNN gefinetuned"/>
+    <tableColumn id="12" name="Generatie"/>
+    <tableColumn id="13" name="MIL"/>
+    <tableColumn id="14" name="Retrieval"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2001,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -3277,121 +2468,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D27:D37 D39">
-    <cfRule type="top10" dxfId="38" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E36">
-    <cfRule type="top10" dxfId="37" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F36">
-    <cfRule type="top10" dxfId="36" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G36">
-    <cfRule type="top10" dxfId="35" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H36">
-    <cfRule type="top10" dxfId="34" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N28">
-    <cfRule type="top10" dxfId="33" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O28">
-    <cfRule type="top10" dxfId="32" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P28">
-    <cfRule type="top10" dxfId="31" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27:V28">
-    <cfRule type="top10" dxfId="30" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:W28">
-    <cfRule type="top10" dxfId="29" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:X28">
-    <cfRule type="top10" dxfId="28" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q34">
-    <cfRule type="top10" dxfId="27" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27:Y28">
-    <cfRule type="top10" dxfId="26" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N12">
-    <cfRule type="top10" dxfId="25" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12">
-    <cfRule type="top10" dxfId="24" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="top10" dxfId="23" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q12">
-    <cfRule type="top10" dxfId="22" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="56" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V12">
-    <cfRule type="top10" dxfId="21" priority="57" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="57" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W12">
-    <cfRule type="top10" dxfId="20" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X12">
-    <cfRule type="top10" dxfId="19" priority="63" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="63" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y12">
-    <cfRule type="top10" dxfId="18" priority="66" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="66" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N23">
-    <cfRule type="top10" dxfId="17" priority="67" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="67" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O23">
-    <cfRule type="top10" dxfId="16" priority="70" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="70" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P23">
-    <cfRule type="top10" dxfId="15" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q23">
-    <cfRule type="top10" dxfId="14" priority="76" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="76" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14:V23">
-    <cfRule type="top10" dxfId="13" priority="77" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="77" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:W23">
-    <cfRule type="top10" dxfId="12" priority="80" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="80" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:X23">
-    <cfRule type="top10" dxfId="11" priority="83" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="83" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:Y23">
-    <cfRule type="top10" dxfId="10" priority="86" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="86" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4 D6:D11">
-    <cfRule type="top10" dxfId="9" priority="100" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="100" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 E6:E12">
-    <cfRule type="top10" dxfId="8" priority="104" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="104" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6:F12">
-    <cfRule type="top10" dxfId="7" priority="108" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="108" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G6:G12">
-    <cfRule type="top10" dxfId="6" priority="112" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="112" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4 H6:H12">
-    <cfRule type="top10" dxfId="5" priority="116" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D24">
-    <cfRule type="top10" dxfId="4" priority="117" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="117" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15 E17:E24">
-    <cfRule type="top10" dxfId="3" priority="121" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="121" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15 F17:F24">
-    <cfRule type="top10" dxfId="2" priority="125" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="125" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15 G17:G24">
-    <cfRule type="top10" dxfId="1" priority="129" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="129" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15 H17:H24">
-    <cfRule type="top10" dxfId="0" priority="133" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="133" rank="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -3408,13 +2599,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41739</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41919</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41963</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41980</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42046</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42052</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Latex/resultsSOA.xlsx
+++ b/Latex/resultsSOA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
   <si>
     <t>Flickr8k</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>(dependency triplets als sentence representation)</t>
+  </si>
+  <si>
+    <t>Jin,Fu</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,450 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
@@ -464,405 +910,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,14 +925,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B5:O16" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B5:O16" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="B5:O16"/>
   <sortState ref="B6:O16">
     <sortCondition ref="C5:C16"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Titel"/>
-    <tableColumn id="2" name="Datum" dataDxfId="0"/>
+    <tableColumn id="2" name="Datum" dataDxfId="43"/>
     <tableColumn id="3" name="Auteur"/>
     <tableColumn id="4" name="Naam"/>
     <tableColumn id="5" name="Objects"/>
@@ -1190,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y39"/>
+  <dimension ref="B1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,140 +2496,163 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38">
+        <v>69.7</v>
+      </c>
+      <c r="E38">
+        <v>51.9</v>
+      </c>
+      <c r="F38">
+        <v>38.1</v>
+      </c>
+      <c r="G38">
+        <v>28.2</v>
+      </c>
+      <c r="H38">
+        <v>23.5</v>
+      </c>
+      <c r="I38">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>21.7</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>25.2</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>85.4</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D27:D37 D39">
-    <cfRule type="top10" dxfId="40" priority="36" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E36">
-    <cfRule type="top10" dxfId="39" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F36">
-    <cfRule type="top10" dxfId="38" priority="34" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G36">
-    <cfRule type="top10" dxfId="37" priority="33" rank="1"/>
+  <conditionalFormatting sqref="D27:D40">
+    <cfRule type="top10" dxfId="38" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E36 E38:E39">
+    <cfRule type="top10" dxfId="37" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F36 F38:F39">
+    <cfRule type="top10" dxfId="36" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G36 G38:G39">
+    <cfRule type="top10" dxfId="35" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H36">
-    <cfRule type="top10" dxfId="36" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N28">
-    <cfRule type="top10" dxfId="35" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O28">
-    <cfRule type="top10" dxfId="34" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P28">
-    <cfRule type="top10" dxfId="33" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27:V28">
-    <cfRule type="top10" dxfId="32" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:W28">
-    <cfRule type="top10" dxfId="31" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:X28">
-    <cfRule type="top10" dxfId="30" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q34">
-    <cfRule type="top10" dxfId="29" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27:Y28">
-    <cfRule type="top10" dxfId="28" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N12">
-    <cfRule type="top10" dxfId="27" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O12">
-    <cfRule type="top10" dxfId="26" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P12">
-    <cfRule type="top10" dxfId="25" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q12">
-    <cfRule type="top10" dxfId="24" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="56" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V12">
-    <cfRule type="top10" dxfId="23" priority="57" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="57" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W12">
-    <cfRule type="top10" dxfId="22" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X12">
-    <cfRule type="top10" dxfId="21" priority="63" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="63" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y12">
-    <cfRule type="top10" dxfId="20" priority="66" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="66" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N23">
-    <cfRule type="top10" dxfId="19" priority="67" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="67" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O23">
-    <cfRule type="top10" dxfId="18" priority="70" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="70" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P23">
-    <cfRule type="top10" dxfId="17" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q23">
-    <cfRule type="top10" dxfId="16" priority="76" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="76" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14:V23">
-    <cfRule type="top10" dxfId="15" priority="77" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="77" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:W23">
-    <cfRule type="top10" dxfId="14" priority="80" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="80" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:X23">
-    <cfRule type="top10" dxfId="13" priority="83" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="83" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:Y23">
-    <cfRule type="top10" dxfId="12" priority="86" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="86" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4 D6:D11">
-    <cfRule type="top10" dxfId="11" priority="100" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="100" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 E6:E12">
-    <cfRule type="top10" dxfId="10" priority="104" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="104" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6:F12">
-    <cfRule type="top10" dxfId="9" priority="108" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="108" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G6:G12">
-    <cfRule type="top10" dxfId="8" priority="112" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="112" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4 H6:H12">
-    <cfRule type="top10" dxfId="7" priority="116" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D24">
-    <cfRule type="top10" dxfId="6" priority="117" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="117" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15 E17:E24">
-    <cfRule type="top10" dxfId="5" priority="121" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="121" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15 F17:F24">
-    <cfRule type="top10" dxfId="4" priority="125" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="125" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15 G17:G24">
-    <cfRule type="top10" dxfId="3" priority="129" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="129" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15 H17:H24">
-    <cfRule type="top10" dxfId="2" priority="133" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="133" rank="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -2601,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
